--- a/Python/网络爬虫/DataBaseStruct.xlsx
+++ b/Python/网络爬虫/DataBaseStruct.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>列数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,28 +30,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HometeamName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuestteamName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主队总胜率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客队总胜率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主队主场胜率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客队客场胜率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>team1rank</t>
+  </si>
+  <si>
+    <t>team2rank</t>
+  </si>
+  <si>
+    <t>vs_times</t>
+  </si>
+  <si>
+    <t>vs_team1win_times</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>team2_total_mainwintimes</t>
   </si>
   <si>
     <t>主队排名</t>
@@ -59,14 +53,210 @@
   </si>
   <si>
     <t>客队排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战主动赢的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战主队和的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战主队输的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近几场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近主队赢的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客队名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近主队和的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近主队输的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近客队赢的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近客队和的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近客队输的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来5天主队比赛场数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来5天客队比赛场数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs_team1draw_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs_team1lose_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_team1win_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_team1draw_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_team1lose_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_team2win_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_team2draw_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recently_team2lose_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next5day_team1_match_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next5day_team2_match_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_wintimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_mainwintimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_guestwintimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_drawtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_maindrawtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_guestdrawtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_losetimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_mainlosetimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_total_guestlosetimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_wintimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_guestwintimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_drawtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_maindrawtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_guestdrawtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_losetimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_mainlosetimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2_total_guestlosetimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_win_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_draw_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team1_lose_percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +271,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323232"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,11 +301,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -118,11 +317,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,6 +400,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -230,6 +435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,22 +611,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,108 +637,370 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -543,13 +1011,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -557,12 +1034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
